--- a/Code/Results/Cases/Case_8_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.80967567331075</v>
+        <v>24.46818641328177</v>
       </c>
       <c r="C2">
-        <v>23.30802432207969</v>
+        <v>24.0309453693994</v>
       </c>
       <c r="D2">
-        <v>4.199577307562027</v>
+        <v>4.956692300733087</v>
       </c>
       <c r="E2">
-        <v>10.2982967039384</v>
+        <v>10.78548897382132</v>
       </c>
       <c r="F2">
-        <v>40.7187642575187</v>
+        <v>37.70072365852337</v>
       </c>
       <c r="G2">
-        <v>2.100030687689146</v>
+        <v>3.509914362386501</v>
       </c>
       <c r="H2">
-        <v>1.647049665391118</v>
+        <v>1.693363859112182</v>
       </c>
       <c r="I2">
-        <v>2.487311206016161</v>
+        <v>2.72152580827854</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.44494936425532</v>
+        <v>19.97724716888396</v>
       </c>
       <c r="L2">
-        <v>7.555808298725918</v>
+        <v>16.62681249497517</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.23245923337331</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.591628349644222</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.78331632074234</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.31459943985101</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.14558797326471</v>
+        <v>22.91082704462052</v>
       </c>
       <c r="C3">
-        <v>21.75682962265867</v>
+        <v>22.4033509275031</v>
       </c>
       <c r="D3">
-        <v>4.004232773614783</v>
+        <v>4.766322665036628</v>
       </c>
       <c r="E3">
-        <v>9.738108792573247</v>
+        <v>10.26809923931867</v>
       </c>
       <c r="F3">
-        <v>38.93795876282595</v>
+        <v>36.09102845650654</v>
       </c>
       <c r="G3">
-        <v>2.107586247086974</v>
+        <v>4.398122025458809</v>
       </c>
       <c r="H3">
-        <v>2.010896185052985</v>
+        <v>1.721807677878375</v>
       </c>
       <c r="I3">
-        <v>2.735227761625697</v>
+        <v>2.522435409973263</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.85306474540604</v>
+        <v>19.52581227384286</v>
       </c>
       <c r="L3">
-        <v>7.252734266312494</v>
+        <v>16.46999105788864</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.68215983155162</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.325709064838597</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.94654431848166</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.45813296582718</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.06591448942707</v>
+        <v>21.89596849923724</v>
       </c>
       <c r="C4">
-        <v>20.75807169910106</v>
+        <v>21.34979977022314</v>
       </c>
       <c r="D4">
-        <v>3.881147373323856</v>
+        <v>4.647658834143138</v>
       </c>
       <c r="E4">
-        <v>9.379732392329371</v>
+        <v>9.938034996450472</v>
       </c>
       <c r="F4">
-        <v>37.81334485959988</v>
+        <v>35.06723021080406</v>
       </c>
       <c r="G4">
-        <v>2.112354292589387</v>
+        <v>4.960014374247378</v>
       </c>
       <c r="H4">
-        <v>2.241100593299489</v>
+        <v>1.910477236143025</v>
       </c>
       <c r="I4">
-        <v>2.911918095946366</v>
+        <v>2.554909489991056</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.48557360077984</v>
+        <v>19.24213639935225</v>
       </c>
       <c r="L4">
-        <v>7.060046975224486</v>
+        <v>16.36484293123381</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.35282596892242</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.156831414582307</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.04694909759496</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.54658531262347</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.60232692551361</v>
+        <v>21.45906133506589</v>
       </c>
       <c r="C5">
-        <v>20.34421864813214</v>
+        <v>20.91129235050283</v>
       </c>
       <c r="D5">
-        <v>3.833427233505696</v>
+        <v>4.601973286807356</v>
       </c>
       <c r="E5">
-        <v>9.231406685999112</v>
+        <v>9.801773188386758</v>
       </c>
       <c r="F5">
-        <v>37.33006512328291</v>
+        <v>34.62483821786238</v>
       </c>
       <c r="G5">
-        <v>2.114343796916434</v>
+        <v>5.194767058186944</v>
       </c>
       <c r="H5">
-        <v>2.337181913752074</v>
+        <v>1.98931955926045</v>
       </c>
       <c r="I5">
-        <v>2.988568098954838</v>
+        <v>2.613362117483063</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.32187707205603</v>
+        <v>19.11298425190539</v>
       </c>
       <c r="L5">
-        <v>6.9792741505882</v>
+        <v>16.31019564815393</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.21258046347939</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.086103657750953</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.08613356753293</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.58166105262941</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.51335039641946</v>
+        <v>21.37512020123376</v>
       </c>
       <c r="C6">
-        <v>20.28062587646439</v>
+        <v>20.84312161039478</v>
       </c>
       <c r="D6">
-        <v>3.829388321174459</v>
+        <v>4.598112586318857</v>
       </c>
       <c r="E6">
-        <v>9.208170037508296</v>
+        <v>9.780528807837927</v>
       </c>
       <c r="F6">
-        <v>37.2278575559815</v>
+        <v>34.53052040098655</v>
       </c>
       <c r="G6">
-        <v>2.114691955711276</v>
+        <v>5.235855768360116</v>
       </c>
       <c r="H6">
-        <v>2.353863735242357</v>
+        <v>2.0029812431802</v>
       </c>
       <c r="I6">
-        <v>3.00547780349244</v>
+        <v>2.628053887380389</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.27871790778514</v>
+        <v>19.07679945823334</v>
       </c>
       <c r="L6">
-        <v>6.965007171860468</v>
+        <v>16.28932489540482</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.17886250527128</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.073621934793477</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.09045482306308</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.58619951452493</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.03002459009306</v>
+        <v>21.81981930503125</v>
       </c>
       <c r="C7">
-        <v>20.76804809106127</v>
+        <v>21.28133508384451</v>
       </c>
       <c r="D7">
-        <v>3.89106094470273</v>
+        <v>4.677970176330852</v>
       </c>
       <c r="E7">
-        <v>9.382054335529714</v>
+        <v>9.948671188025871</v>
       </c>
       <c r="F7">
-        <v>37.74892733116008</v>
+        <v>34.89222978104724</v>
       </c>
       <c r="G7">
-        <v>2.112423513172102</v>
+        <v>5.029207083267817</v>
       </c>
       <c r="H7">
-        <v>2.244065888273308</v>
+        <v>1.916091586653778</v>
       </c>
       <c r="I7">
-        <v>2.923905287189001</v>
+        <v>2.572008159162992</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.44022782257652</v>
+        <v>19.14159857751696</v>
       </c>
       <c r="L7">
-        <v>7.056925439849357</v>
+        <v>16.28596198219462</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.27867622673745</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.150142905608991</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.0415496600316</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.53886853583282</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.2114983706502</v>
+        <v>23.77898894895493</v>
       </c>
       <c r="C8">
-        <v>22.8016270680183</v>
+        <v>23.26194700434615</v>
       </c>
       <c r="D8">
-        <v>4.146075306585164</v>
+        <v>4.970947722511287</v>
       </c>
       <c r="E8">
-        <v>10.11347517200879</v>
+        <v>10.64102739835054</v>
       </c>
       <c r="F8">
-        <v>40.0387011862062</v>
+        <v>36.72485966762046</v>
       </c>
       <c r="G8">
-        <v>2.102664123956987</v>
+        <v>4.166600696352378</v>
       </c>
       <c r="H8">
-        <v>1.773279127563244</v>
+        <v>1.582664201641178</v>
       </c>
       <c r="I8">
-        <v>2.566241886758494</v>
+        <v>2.646845778511921</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.18638781661284</v>
+        <v>19.58249189943923</v>
       </c>
       <c r="L8">
-        <v>7.450119674475686</v>
+        <v>16.38979879172698</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.85924622059273</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.486296859897309</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.83197378680147</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.34653088597689</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.07710764694108</v>
+        <v>27.36227060890452</v>
       </c>
       <c r="C9">
-        <v>26.42711220521313</v>
+        <v>27.01598945011763</v>
       </c>
       <c r="D9">
-        <v>4.603288476913682</v>
+        <v>5.434601019971747</v>
       </c>
       <c r="E9">
-        <v>11.42595641936608</v>
+        <v>11.8600196647643</v>
       </c>
       <c r="F9">
-        <v>44.36184468277624</v>
+        <v>40.53623884520064</v>
       </c>
       <c r="G9">
-        <v>2.084419449901632</v>
+        <v>2.361939333978481</v>
       </c>
       <c r="H9">
-        <v>2.206573095478475</v>
+        <v>2.274149301106752</v>
       </c>
       <c r="I9">
-        <v>3.046377683274711</v>
+        <v>3.122606220762277</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.68743726217368</v>
+        <v>20.67808525850835</v>
       </c>
       <c r="L9">
-        <v>8.17140816322755</v>
+        <v>16.74646360765614</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.26011859693845</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.117168243253156</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.43154075875443</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.9931085934432</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.55304201013832</v>
+        <v>29.4872573880449</v>
       </c>
       <c r="C10">
-        <v>28.76655936639362</v>
+        <v>29.04072718628655</v>
       </c>
       <c r="D10">
-        <v>4.874459229560641</v>
+        <v>5.810152142484216</v>
       </c>
       <c r="E10">
-        <v>12.11247984320564</v>
+        <v>12.52058345534611</v>
       </c>
       <c r="F10">
-        <v>47.00508894187201</v>
+        <v>42.27308664877714</v>
       </c>
       <c r="G10">
-        <v>2.071877642297268</v>
+        <v>3.803984686211517</v>
       </c>
       <c r="H10">
-        <v>2.783470068830972</v>
+        <v>2.720119722194926</v>
       </c>
       <c r="I10">
-        <v>3.496924530633324</v>
+        <v>3.436189631468694</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.59200781089011</v>
+        <v>21.00289022335767</v>
       </c>
       <c r="L10">
-        <v>8.54874043806092</v>
+        <v>16.64450765121317</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.94644828869981</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.4150764461255</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.11473241282543</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.71551122179563</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.79225114879972</v>
+        <v>29.352642697224</v>
       </c>
       <c r="C11">
-        <v>28.61397667098741</v>
+        <v>28.11935811884053</v>
       </c>
       <c r="D11">
-        <v>4.564957149100538</v>
+        <v>5.639281744443815</v>
       </c>
       <c r="E11">
-        <v>10.67116529637585</v>
+        <v>11.10151972386578</v>
       </c>
       <c r="F11">
-        <v>45.23793802079776</v>
+        <v>39.44333453998367</v>
       </c>
       <c r="G11">
-        <v>2.069146523156336</v>
+        <v>7.751067148865114</v>
       </c>
       <c r="H11">
-        <v>3.491531303269046</v>
+        <v>3.397222638406332</v>
       </c>
       <c r="I11">
-        <v>3.596752723031968</v>
+        <v>3.481073135840236</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.62268100560441</v>
+        <v>19.51189791843185</v>
       </c>
       <c r="L11">
-        <v>7.736779190903913</v>
+        <v>15.42399590931844</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.95546746845997</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.562080310612516</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.82837286998838</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.59977526712088</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50567062145755</v>
+        <v>28.95146933082294</v>
       </c>
       <c r="C12">
-        <v>27.98016236709324</v>
+        <v>27.11004882792797</v>
       </c>
       <c r="D12">
-        <v>4.255205987946732</v>
+        <v>5.33965064920408</v>
       </c>
       <c r="E12">
-        <v>9.392154149979589</v>
+        <v>9.801350807598334</v>
       </c>
       <c r="F12">
-        <v>43.2379703455694</v>
+        <v>37.07408192148949</v>
       </c>
       <c r="G12">
-        <v>2.069240572141382</v>
+        <v>9.622506950485418</v>
       </c>
       <c r="H12">
-        <v>4.57090405536787</v>
+        <v>4.495332879735603</v>
       </c>
       <c r="I12">
-        <v>3.589963738570238</v>
+        <v>3.46417044437772</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.66228590183863</v>
+        <v>18.42864306664575</v>
       </c>
       <c r="L12">
-        <v>7.048056082507451</v>
+        <v>14.60516267796145</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.15490088297678</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.871410224766375</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.69565786356105</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.61983746624712</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75408380975417</v>
+        <v>28.35833609018793</v>
       </c>
       <c r="C13">
-        <v>26.93427715716196</v>
+        <v>26.10110957773302</v>
       </c>
       <c r="D13">
-        <v>3.936520697415212</v>
+        <v>4.897210954628524</v>
       </c>
       <c r="E13">
-        <v>8.177138139341112</v>
+        <v>8.520784630700756</v>
       </c>
       <c r="F13">
-        <v>40.81455720222828</v>
+        <v>35.02123697246219</v>
       </c>
       <c r="G13">
-        <v>2.071568443699107</v>
+        <v>9.193914362295704</v>
       </c>
       <c r="H13">
-        <v>5.763252912140167</v>
+        <v>5.719140501780352</v>
       </c>
       <c r="I13">
-        <v>3.502705905067655</v>
+        <v>3.406634805453068</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.57661389052628</v>
+        <v>17.6408009919523</v>
       </c>
       <c r="L13">
-        <v>6.422509000788712</v>
+        <v>14.06336382113945</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.49840521074816</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.281298915079884</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.66367457068453</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.69538816883285</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.00073332434318</v>
+        <v>27.83788550321624</v>
       </c>
       <c r="C14">
-        <v>26.00450921613616</v>
+        <v>25.37658718830659</v>
       </c>
       <c r="D14">
-        <v>3.715748259998775</v>
+        <v>4.537740399678436</v>
       </c>
       <c r="E14">
-        <v>7.401045391796584</v>
+        <v>7.684690068818298</v>
       </c>
       <c r="F14">
-        <v>38.88937871834005</v>
+        <v>33.67905497184385</v>
       </c>
       <c r="G14">
-        <v>2.074195450408732</v>
+        <v>7.882489119418247</v>
       </c>
       <c r="H14">
-        <v>6.642634797625186</v>
+        <v>6.619542178641435</v>
       </c>
       <c r="I14">
-        <v>3.406651694098931</v>
+        <v>3.348676346813428</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.74559422153185</v>
+        <v>17.1977979874654</v>
       </c>
       <c r="L14">
-        <v>6.040853896101511</v>
+        <v>13.78706202628426</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.08655632748881</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.940294723454651</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.68966928922365</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.76290150917663</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.70587921386159</v>
+        <v>27.65318684239956</v>
       </c>
       <c r="C15">
-        <v>25.69101559618854</v>
+        <v>25.19026892403696</v>
       </c>
       <c r="D15">
-        <v>3.658836992837527</v>
+        <v>4.42971722518797</v>
       </c>
       <c r="E15">
-        <v>7.215517325794979</v>
+        <v>7.484695210860474</v>
       </c>
       <c r="F15">
-        <v>38.31066572483974</v>
+        <v>33.38130770778022</v>
       </c>
       <c r="G15">
-        <v>2.075347782799941</v>
+        <v>7.126523221654335</v>
       </c>
       <c r="H15">
-        <v>6.840560400814902</v>
+        <v>6.824442270271078</v>
       </c>
       <c r="I15">
-        <v>3.366382249358196</v>
+        <v>3.326253209133677</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.50330765490873</v>
+        <v>17.12660091393841</v>
       </c>
       <c r="L15">
-        <v>5.951404956199903</v>
+        <v>13.75699343876913</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.9983984341372</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.866728260356687</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.71235248736986</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.78296097296096</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.74375146152082</v>
+        <v>27.13486718714322</v>
       </c>
       <c r="C16">
-        <v>24.86234643220839</v>
+        <v>25.00536352214946</v>
       </c>
       <c r="D16">
-        <v>3.59265788375305</v>
+        <v>4.226675139327499</v>
       </c>
       <c r="E16">
-        <v>7.092457026937721</v>
+        <v>7.375950000944975</v>
       </c>
       <c r="F16">
-        <v>37.52538686765741</v>
+        <v>33.74154893601935</v>
       </c>
       <c r="G16">
-        <v>2.080215045093701</v>
+        <v>3.611443570677457</v>
       </c>
       <c r="H16">
-        <v>6.537437062217062</v>
+        <v>6.546038278469046</v>
       </c>
       <c r="I16">
-        <v>3.195068162802605</v>
+        <v>3.229063739984736</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.28023258906076</v>
+        <v>17.52935539129463</v>
       </c>
       <c r="L16">
-        <v>5.891478222883128</v>
+        <v>14.15348527759286</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.15789074894428</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.857802277065346</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.84689750863593</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.81630269903585</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.43211967589581</v>
+        <v>26.96707897740122</v>
       </c>
       <c r="C17">
-        <v>24.73684544720242</v>
+        <v>25.17704432491773</v>
       </c>
       <c r="D17">
-        <v>3.660357780535268</v>
+        <v>4.273827874493696</v>
       </c>
       <c r="E17">
-        <v>7.39882541772692</v>
+        <v>7.714823476507666</v>
       </c>
       <c r="F17">
-        <v>37.97873126447828</v>
+        <v>34.62340560719125</v>
       </c>
       <c r="G17">
-        <v>2.082575836508535</v>
+        <v>2.311917475587134</v>
       </c>
       <c r="H17">
-        <v>5.780140086948816</v>
+        <v>5.801320263114203</v>
       </c>
       <c r="I17">
-        <v>3.114152961439474</v>
+        <v>3.182012576600722</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.55786228121666</v>
+        <v>18.01307634142009</v>
       </c>
       <c r="L17">
-        <v>6.036434292994535</v>
+        <v>14.57104023835485</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.44507667630855</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.019100948790961</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.93480693596641</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.83085472497581</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.64787322049085</v>
+        <v>27.18272754044361</v>
       </c>
       <c r="C18">
-        <v>25.20390065057959</v>
+        <v>25.7985769694502</v>
       </c>
       <c r="D18">
-        <v>3.865466219766304</v>
+        <v>4.511077126548808</v>
       </c>
       <c r="E18">
-        <v>8.232834723258796</v>
+        <v>8.579018819539106</v>
       </c>
       <c r="F18">
-        <v>39.58998413120975</v>
+        <v>36.29444574230647</v>
       </c>
       <c r="G18">
-        <v>2.082914785775293</v>
+        <v>1.855722088194858</v>
       </c>
       <c r="H18">
-        <v>4.588369315934564</v>
+        <v>4.618113467730072</v>
       </c>
       <c r="I18">
-        <v>3.101988072386873</v>
+        <v>3.175922665109693</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.32934705199727</v>
+        <v>18.76047927003544</v>
       </c>
       <c r="L18">
-        <v>6.450387058385679</v>
+        <v>15.15426955640059</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.98287652585178</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.427209314509766</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.01111755527416</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.82969052682555</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.22252822580738</v>
+        <v>27.67706873825904</v>
       </c>
       <c r="C19">
-        <v>26.1270759644443</v>
+        <v>26.80094707907019</v>
       </c>
       <c r="D19">
-        <v>4.200476530516357</v>
+        <v>4.903064599675067</v>
       </c>
       <c r="E19">
-        <v>9.548816952238196</v>
+        <v>9.915365861241282</v>
       </c>
       <c r="F19">
-        <v>41.89996004615323</v>
+        <v>38.45580471007332</v>
       </c>
       <c r="G19">
-        <v>2.08153354448156</v>
+        <v>1.60832328107452</v>
       </c>
       <c r="H19">
-        <v>3.312864460459502</v>
+        <v>3.347359629797452</v>
       </c>
       <c r="I19">
-        <v>3.156105998783275</v>
+        <v>3.216972666534553</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.37019696054418</v>
+        <v>19.64720799724163</v>
       </c>
       <c r="L19">
-        <v>7.132510473910799</v>
+        <v>15.81599517876003</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.66568555624791</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.089762518526177</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.0925052695782</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.82889607270957</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.82835729119894</v>
+        <v>28.99411361275104</v>
       </c>
       <c r="C20">
-        <v>28.19653069289442</v>
+        <v>28.76262290295907</v>
       </c>
       <c r="D20">
-        <v>4.828501313027395</v>
+        <v>5.672034612602802</v>
       </c>
       <c r="E20">
-        <v>11.93621659754129</v>
+        <v>12.32693559211435</v>
       </c>
       <c r="F20">
-        <v>46.1560582542665</v>
+        <v>42.01224560234923</v>
       </c>
       <c r="G20">
-        <v>2.07527472522664</v>
+        <v>2.203857616130905</v>
       </c>
       <c r="H20">
-        <v>2.626867251108157</v>
+        <v>2.609471686871367</v>
       </c>
       <c r="I20">
-        <v>3.383684810279794</v>
+        <v>3.373395733269251</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.22922853178432</v>
+        <v>20.99221987453981</v>
       </c>
       <c r="L20">
-        <v>8.440420721682763</v>
+        <v>16.72559274627743</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.82408201487051</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.340467490659517</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.18075778675088</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.78972751151509</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.85602707283034</v>
+        <v>30.08091147071461</v>
       </c>
       <c r="C21">
-        <v>30.12523019903809</v>
+        <v>29.38166896283689</v>
       </c>
       <c r="D21">
-        <v>5.107806730733597</v>
+        <v>6.386299585386819</v>
       </c>
       <c r="E21">
-        <v>12.7656223102828</v>
+        <v>13.26976511391607</v>
       </c>
       <c r="F21">
-        <v>48.68080310709729</v>
+        <v>42.04991910050505</v>
       </c>
       <c r="G21">
-        <v>2.06522868608321</v>
+        <v>9.47009042517382</v>
       </c>
       <c r="H21">
-        <v>3.099532074119047</v>
+        <v>2.924706002980792</v>
       </c>
       <c r="I21">
-        <v>3.743133741991353</v>
+        <v>3.571474023819266</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.18029077646371</v>
+        <v>20.48585338992436</v>
       </c>
       <c r="L21">
-        <v>8.905600451296095</v>
+        <v>16.10816971289578</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.75487150946467</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.679578676992898</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.96913507613818</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.56404651686989</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.10667050214889</v>
+        <v>30.70250972403327</v>
       </c>
       <c r="C22">
-        <v>31.25996179584886</v>
+        <v>29.61878645597993</v>
       </c>
       <c r="D22">
-        <v>5.249554518322093</v>
+        <v>6.832164771203132</v>
       </c>
       <c r="E22">
-        <v>13.18305548378677</v>
+        <v>13.7704472482329</v>
       </c>
       <c r="F22">
-        <v>50.18322170221668</v>
+        <v>41.85537050427781</v>
       </c>
       <c r="G22">
-        <v>2.058850197635144</v>
+        <v>14.56444815327431</v>
       </c>
       <c r="H22">
-        <v>3.394488679336708</v>
+        <v>3.118203132117707</v>
       </c>
       <c r="I22">
-        <v>3.968895404595807</v>
+        <v>3.691198204049058</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.76524819783648</v>
+        <v>20.07136353005943</v>
       </c>
       <c r="L22">
-        <v>9.144688680515502</v>
+        <v>15.65524142398151</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.64076132756818</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.8361961450235</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.82757270467946</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.44084134112094</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.46977862794461</v>
+        <v>30.47977294288294</v>
       </c>
       <c r="C23">
-        <v>30.6452723169036</v>
+        <v>29.62821681921414</v>
       </c>
       <c r="D23">
-        <v>5.164395508535721</v>
+        <v>6.536006257432852</v>
       </c>
       <c r="E23">
-        <v>12.95758360844028</v>
+        <v>13.48163379790661</v>
       </c>
       <c r="F23">
-        <v>49.43863157947827</v>
+        <v>42.25001771382805</v>
       </c>
       <c r="G23">
-        <v>2.062205177520664</v>
+        <v>11.05426743513856</v>
       </c>
       <c r="H23">
-        <v>3.239112773583257</v>
+        <v>3.022504243085135</v>
       </c>
       <c r="I23">
-        <v>3.84706114278652</v>
+        <v>3.630141449807436</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.49735330800949</v>
+        <v>20.4641134779497</v>
       </c>
       <c r="L23">
-        <v>9.019605609949512</v>
+        <v>16.01746589874645</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.83877305578547</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.762750908143161</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.9094797510923</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.50419800662408</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.91371107225169</v>
+        <v>29.07384265762891</v>
       </c>
       <c r="C24">
-        <v>28.25492557456042</v>
+        <v>28.83830177538363</v>
       </c>
       <c r="D24">
-        <v>4.851120134609581</v>
+        <v>5.697045871598453</v>
       </c>
       <c r="E24">
-        <v>12.085045309452</v>
+        <v>12.47645673112178</v>
       </c>
       <c r="F24">
-        <v>46.46763247962017</v>
+        <v>42.3178223102998</v>
       </c>
       <c r="G24">
-        <v>2.075101569659861</v>
+        <v>2.164154975766761</v>
       </c>
       <c r="H24">
-        <v>2.640881680571032</v>
+        <v>2.62211280792279</v>
       </c>
       <c r="I24">
-        <v>3.384176477140057</v>
+        <v>3.370611443830633</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.40497539282603</v>
+        <v>21.15434919245814</v>
       </c>
       <c r="L24">
-        <v>8.531006495190322</v>
+        <v>16.84819918458808</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.94631427070134</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.429815947708166</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.2084150187267</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.80039046760423</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.03530923177421</v>
+        <v>26.44684554573819</v>
       </c>
       <c r="C25">
-        <v>25.49464632495345</v>
+        <v>26.15632713882232</v>
       </c>
       <c r="D25">
-        <v>4.499088143439741</v>
+        <v>5.300697475537482</v>
       </c>
       <c r="E25">
-        <v>11.08983438632047</v>
+        <v>11.5376503302127</v>
       </c>
       <c r="F25">
-        <v>43.1299641765866</v>
+        <v>39.59579238748018</v>
       </c>
       <c r="G25">
-        <v>2.089331257396077</v>
+        <v>2.527446979599655</v>
       </c>
       <c r="H25">
-        <v>1.977876703797283</v>
+        <v>2.093967554106346</v>
       </c>
       <c r="I25">
-        <v>2.876515624932789</v>
+        <v>3.005200681454662</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.21341639913196</v>
+        <v>20.39986217583174</v>
       </c>
       <c r="L25">
-        <v>7.978750785258006</v>
+        <v>16.66668240569856</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.88742313091396</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.953829997909651</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.53000685587329</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.08895642944895</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
